--- a/PA7/SolarSystemDiameters.xlsx
+++ b/PA7/SolarSystemDiameters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Sun</t>
   </si>
@@ -58,34 +58,31 @@
     <t xml:space="preserve">Diameter (km)</t>
   </si>
   <si>
-    <t xml:space="preserve">Scale Normalized to Earth</t>
+    <t xml:space="preserve">Diameter normalized to Earth’s diameter</t>
   </si>
   <si>
     <t xml:space="preserve">Orbit Perihelion from Parent (km)</t>
   </si>
   <si>
-    <t xml:space="preserve">Perihelion Normalized to Earth</t>
+    <t xml:space="preserve">Orbit Perihelion from Parent normalized to Earth’s diameter</t>
   </si>
   <si>
     <t xml:space="preserve">Orbit Aphelion from Parent (km)</t>
   </si>
   <si>
-    <t xml:space="preserve">Aphelion Normalized to Earth</t>
+    <t xml:space="preserve">Orbit Aphelion from Parent normalized to Earth’s diameter</t>
   </si>
   <si>
     <t xml:space="preserve">Orbit Velocity (km/s)</t>
   </si>
   <si>
-    <t xml:space="preserve">Orbit Velocity Normalized to Earth</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rotation Period (hours)</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotation Speed (Hz)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotation Normalized to Earth</t>
+    <t xml:space="preserve">Rotation Speed normalized to Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotation Frequency normalized to Earth</t>
   </si>
   <si>
     <t xml:space="preserve">Orbital Tilt (degrees)</t>
@@ -112,6 +109,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -196,19 +194,16 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9897959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.9336734693878"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3673469387755"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.1479591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -289,47 +284,47 @@
         <v>12</v>
       </c>
       <c r="B3" s="0" t="n">
-        <f aca="false">B2/$E2</f>
+        <f aca="false">B2/$E$2</f>
         <v>109.078080903104</v>
       </c>
       <c r="C3" s="0" t="n">
-        <f aca="false">C2/$E2</f>
+        <f aca="false">C2/$E$2</f>
         <v>0.382486672938225</v>
       </c>
       <c r="D3" s="0" t="n">
-        <f aca="false">D2/$E2</f>
+        <f aca="false">D2/$E$2</f>
         <v>0.948886798369395</v>
       </c>
       <c r="E3" s="0" t="n">
-        <f aca="false">E2/$E2</f>
+        <f aca="false">E2/$E$2</f>
         <v>1</v>
       </c>
       <c r="F3" s="0" t="n">
-        <f aca="false">F2/$E2</f>
+        <f aca="false">F2/$E$2</f>
         <v>0.272420821574161</v>
       </c>
       <c r="G3" s="0" t="n">
-        <f aca="false">G2/$E2</f>
+        <f aca="false">G2/$E$2</f>
         <v>0.532455315145814</v>
       </c>
       <c r="H3" s="0" t="n">
-        <f aca="false">H2/$E2</f>
+        <f aca="false">H2/$E$2</f>
         <v>11.2091564753841</v>
       </c>
       <c r="I3" s="0" t="n">
-        <f aca="false">I2/$E2</f>
+        <f aca="false">I2/$E$2</f>
         <v>9.44935716525557</v>
       </c>
       <c r="J3" s="0" t="n">
-        <f aca="false">J2/$E2</f>
+        <f aca="false">J2/$E$2</f>
         <v>4.00736908121668</v>
       </c>
       <c r="K3" s="0" t="n">
-        <f aca="false">K2/$E2</f>
+        <f aca="false">K2/$E$2</f>
         <v>3.88272185638131</v>
       </c>
       <c r="L3" s="0" t="n">
-        <f aca="false">L2/$E2</f>
+        <f aca="false">L2/$E$2</f>
         <v>0.185794920037629</v>
       </c>
     </row>
@@ -386,48 +381,48 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="n">
-        <f aca="false">B4/$E4</f>
+        <f aca="false">B4/$E$2</f>
         <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <f aca="false">C4/$E4</f>
-        <v>0.312712440516655</v>
+        <f aca="false">C4/$E$2</f>
+        <v>3606.14612731264</v>
       </c>
       <c r="D5" s="0" t="n">
-        <f aca="false">D4/$E4</f>
-        <v>0.730795377294358</v>
+        <f aca="false">D4/$E$2</f>
+        <v>8427.40671056758</v>
       </c>
       <c r="E5" s="0" t="n">
-        <f aca="false">E4/$E4</f>
-        <v>1</v>
+        <f aca="false">E4/$E$2</f>
+        <v>11531.8281592976</v>
       </c>
       <c r="F5" s="0" t="n">
-        <f aca="false">F4/$E4</f>
-        <v>0.00246770904146839</v>
+        <f aca="false">F4/$E$2</f>
+        <v>28.4571966133584</v>
       </c>
       <c r="G5" s="0" t="n">
-        <f aca="false">G4/$E4</f>
-        <v>1.40448674371176</v>
+        <f aca="false">G4/$E$2</f>
+        <v>16196.2997804955</v>
       </c>
       <c r="H5" s="0" t="n">
-        <f aca="false">H4/$E4</f>
-        <v>5.03399048266485</v>
+        <f aca="false">H4/$E$2</f>
+        <v>58051.1132016306</v>
       </c>
       <c r="I5" s="0" t="n">
-        <f aca="false">I4/$E4</f>
-        <v>9.19510537049626</v>
+        <f aca="false">I4/$E$2</f>
+        <v>106036.375039197</v>
       </c>
       <c r="J5" s="0" t="n">
-        <f aca="false">J4/$E4</f>
-        <v>18.6356220258328</v>
+        <f aca="false">J4/$E$2</f>
+        <v>214902.790843525</v>
       </c>
       <c r="K5" s="0" t="n">
-        <f aca="false">K4/$E4</f>
-        <v>30.2141400407886</v>
+        <f aca="false">K4/$E$2</f>
+        <v>348424.270931326</v>
       </c>
       <c r="L5" s="0" t="n">
-        <f aca="false">L4/$E4</f>
-        <v>30.1617946974847</v>
+        <f aca="false">L4/$E$2</f>
+        <v>347820.633427407</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -482,50 +477,6 @@
       <c r="A7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <f aca="false">B6/$E6</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <f aca="false">C6/$E6</f>
-        <v>0.458908612754767</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <f aca="false">D6/$E6</f>
-        <v>0.715976331360947</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <f aca="false">E6/$E6</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <f aca="false">F6/$E6</f>
-        <v>0.00266929651545036</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">G6/$E6</f>
-        <v>1.63839579224195</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <f aca="false">H6/$E6</f>
-        <v>5.36883629191322</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <f aca="false">I6/$E6</f>
-        <v>9.95726495726496</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <f aca="false">J6/$E6</f>
-        <v>19.7475345167653</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <f aca="false">K6/$E6</f>
-        <v>29.8862590401052</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <f aca="false">L6/$E6</f>
-        <v>48.4937541091387</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -565,58 +516,9 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <f aca="false">B8/$E8</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <f aca="false">C8/$E8</f>
-        <v>1.59060402684564</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <f aca="false">D8/$E8</f>
-        <v>1.1744966442953</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <f aca="false">E8/$E8</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <f aca="false">F8/$E8</f>
-        <v>0.0335570469798658</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">G8/$E8</f>
-        <v>0.808724832214765</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <f aca="false">H8/$E8</f>
-        <v>0.439597315436242</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <f aca="false">I8/$E8</f>
-        <v>0.325503355704698</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <f aca="false">J8/$E8</f>
-        <v>0.228187919463087</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <f aca="false">K8/$E8</f>
-        <v>0.181208053691275</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <f aca="false">L8/$E8</f>
-        <v>0.157718120805369</v>
-      </c>
-    </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>587.28</v>
@@ -654,105 +556,105 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0" t="n">
-        <f aca="false">1/(B10*3600)</f>
-        <v>4.72990358564531E-007</v>
+        <f aca="false">B10/$E10</f>
+        <v>24.5723849372385</v>
       </c>
       <c r="C11" s="0" t="n">
-        <f aca="false">1/(C10*3600)</f>
-        <v>1.97341416437751E-007</v>
+        <f aca="false">C10/$E10</f>
+        <v>58.8953974895397</v>
       </c>
       <c r="D11" s="0" t="n">
-        <f aca="false">1/(D10*3600)</f>
-        <v>-4.76258513120922E-008</v>
+        <f aca="false">D10/$E10</f>
+        <v>-244.037656903766</v>
       </c>
       <c r="E11" s="0" t="n">
-        <f aca="false">1/(E10*3600)</f>
-        <v>1.16225011622501E-005</v>
+        <f aca="false">E10/$E10</f>
+        <v>1</v>
       </c>
       <c r="F11" s="0" t="n">
-        <f aca="false">1/(F10*3600)</f>
-        <v>4.23635470150645E-007</v>
+        <f aca="false">F10/$E10</f>
+        <v>27.4351464435146</v>
       </c>
       <c r="G11" s="0" t="n">
-        <f aca="false">1/(G10*3600)</f>
-        <v>1.12917795844625E-005</v>
+        <f aca="false">G10/$E10</f>
+        <v>1.02928870292887</v>
       </c>
       <c r="H11" s="0" t="n">
-        <f aca="false">1/(H10*3600)</f>
-        <v>2.80583613916947E-005</v>
+        <f aca="false">H10/$E10</f>
+        <v>0.414225941422594</v>
       </c>
       <c r="I11" s="0" t="n">
-        <f aca="false">1/(I10*3600)</f>
-        <v>2.59605399792316E-005</v>
+        <f aca="false">I10/$E10</f>
+        <v>0.447698744769874</v>
       </c>
       <c r="J11" s="0" t="n">
-        <f aca="false">1/(J10*3600)</f>
-        <v>-1.61498708010336E-005</v>
+        <f aca="false">J10/$E10</f>
+        <v>-0.719665271966527</v>
       </c>
       <c r="K11" s="0" t="n">
-        <f aca="false">1/(K10*3600)</f>
-        <v>1.72532781228433E-005</v>
+        <f aca="false">K10/$E10</f>
+        <v>0.673640167364017</v>
       </c>
       <c r="L11" s="0" t="n">
-        <f aca="false">1/(L10*3600)</f>
-        <v>-1.81198811335798E-006</v>
+        <f aca="false">L10/$E10</f>
+        <v>-6.4142259414226</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="n">
-        <f aca="false">B11/$E11</f>
+        <f aca="false">1/B11</f>
         <v>0.0406960904508922</v>
       </c>
       <c r="C12" s="0" t="n">
-        <f aca="false">C11/$E11</f>
+        <f aca="false">1/C11</f>
         <v>0.0169792554703041</v>
       </c>
       <c r="D12" s="0" t="n">
-        <f aca="false">D11/$E11</f>
+        <f aca="false">1/D11</f>
         <v>-0.00409772824689241</v>
       </c>
       <c r="E12" s="0" t="n">
-        <f aca="false">E11/$E11</f>
+        <f aca="false">1/E11</f>
         <v>1</v>
       </c>
       <c r="F12" s="0" t="n">
-        <f aca="false">F11/$E11</f>
+        <f aca="false">1/F11</f>
         <v>0.0364495958517615</v>
       </c>
       <c r="G12" s="0" t="n">
-        <f aca="false">G11/$E11</f>
+        <f aca="false">1/G11</f>
         <v>0.971544715447154</v>
       </c>
       <c r="H12" s="0" t="n">
-        <f aca="false">H11/$E11</f>
+        <f aca="false">1/H11</f>
         <v>2.41414141414141</v>
       </c>
       <c r="I12" s="0" t="n">
-        <f aca="false">I11/$E11</f>
+        <f aca="false">1/I11</f>
         <v>2.23364485981308</v>
       </c>
       <c r="J12" s="0" t="n">
-        <f aca="false">J11/$E11</f>
+        <f aca="false">1/J11</f>
         <v>-1.38953488372093</v>
       </c>
       <c r="K12" s="0" t="n">
-        <f aca="false">K11/$E11</f>
+        <f aca="false">1/K11</f>
         <v>1.48447204968944</v>
       </c>
       <c r="L12" s="0" t="n">
-        <f aca="false">L11/$E11</f>
+        <f aca="false">1/L11</f>
         <v>-0.15590345727332</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -790,7 +692,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">RADIANS( B13 )</f>
@@ -839,7 +741,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -877,7 +779,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">RADIANS(B15)</f>
